--- a/PdPDM/PdPDM_ExportTables_Template.xlsx
+++ b/PdPDM/PdPDM_ExportTables_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,226 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">段智慧:【必填项】此处填写“表中文名”，注意表中文名不重复。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>段智慧:【必填项】此处填写“表注释”，可同“表中文名”。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>段智慧:【可填项】此处填写“表说明”，内容包括：出数源表</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>段智慧:【可填项】此处填写“表备注”，内容包括：表的用途。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>段智慧:【必填项】此处填写“字段中文名”。注意：中文字段名同一表不能重名。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">段智慧:【必填项】此处填写“字段注释”。可同“字段中文名”，还可补充编码注释信息。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>段智慧:【可填项】此处填写“字段说明”，内容包括：字段出数口径。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">段智慧:【可填项】此处填写“字段备注”，内容包括：字段业务口径。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
@@ -95,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +348,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -977,20 +1212,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
     <col min="6" max="7" width="23.875" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
@@ -1051,34 +1287,34 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="27.75" customWidth="1"/>
   </cols>
@@ -1129,8 +1365,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>